--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T12:47:09+00:00</t>
+    <t>2022-10-18T08:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,10 +254,6 @@
   </si>
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2149,13 +2145,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>77</v>
@@ -2166,7 +2162,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2177,28 +2173,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2248,13 +2244,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2277,7 +2273,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2288,25 +2284,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2357,19 +2353,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2386,7 +2382,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2397,28 +2393,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2468,19 +2464,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2497,7 +2493,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2508,7 +2504,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2520,16 +2516,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2555,43 +2551,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2608,18 +2604,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2631,16 +2627,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2690,25 +2686,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2719,11 +2715,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2742,16 +2738,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2801,7 +2797,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2819,7 +2815,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2830,11 +2826,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2853,16 +2849,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2912,7 +2908,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2924,13 +2920,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2941,11 +2937,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2958,25 +2954,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3025,7 +3021,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3037,13 +3033,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3054,7 +3050,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3074,16 +3070,16 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3134,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3146,24 +3142,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3171,31 +3167,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3221,60 +3217,60 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3297,16 +3293,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3356,7 +3352,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3368,13 +3364,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3385,7 +3381,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3396,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -3408,13 +3404,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3465,13 +3461,13 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
@@ -3483,7 +3479,7 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3494,11 +3490,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3517,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3576,7 +3572,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3588,13 +3584,13 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3605,11 +3601,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3622,25 +3618,25 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3689,7 +3685,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3701,13 +3697,13 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3718,7 +3714,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3726,10 +3722,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3741,13 +3737,13 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3774,14 +3770,14 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3798,25 +3794,25 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3827,7 +3823,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3835,10 +3831,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3850,13 +3846,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3907,25 +3903,25 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -3936,7 +3932,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3944,28 +3940,28 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3992,60 +3988,60 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4056,7 +4052,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4068,13 +4064,13 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4125,13 +4121,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4143,7 +4139,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4154,11 +4150,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4177,16 +4173,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4224,19 +4220,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AB21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AB21" t="s" s="2">
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4248,13 +4244,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4265,7 +4261,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4276,109 +4272,109 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4389,28 +4385,28 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4460,36 +4456,36 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4500,107 +4496,107 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4611,36 +4607,36 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>77</v>
@@ -4682,36 +4678,36 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4722,31 +4718,31 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4795,36 +4791,36 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4847,13 +4843,13 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4904,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4916,13 +4912,13 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4933,7 +4929,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4944,7 +4940,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4956,13 +4952,13 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5013,13 +5009,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5031,7 +5027,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5042,11 +5038,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5065,16 +5061,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5124,7 +5120,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5136,13 +5132,13 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5153,11 +5149,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5170,25 +5166,25 @@
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5237,7 +5233,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5249,13 +5245,13 @@
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5266,7 +5262,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5274,10 +5270,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5289,13 +5285,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5322,14 +5318,14 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5346,25 +5342,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5375,7 +5371,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5383,10 +5379,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5398,13 +5394,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5455,25 +5451,25 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5484,7 +5480,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5504,19 +5500,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5542,14 +5538,14 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5566,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5578,24 +5574,24 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5606,25 +5602,25 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5651,60 +5647,60 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5715,7 +5711,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5727,13 +5723,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5760,92 +5756,92 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5895,36 +5891,36 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5944,16 +5940,16 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6004,7 +6000,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6016,28 +6012,28 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6056,13 +6052,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6113,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6125,13 +6121,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6142,7 +6138,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6162,16 +6158,16 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6222,7 +6218,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6234,24 +6230,24 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6262,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6274,13 +6270,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6331,13 +6327,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6349,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6360,11 +6356,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6383,16 +6379,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6442,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6454,13 +6450,13 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6471,11 +6467,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6488,25 +6484,25 @@
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6555,7 +6551,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6567,13 +6563,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6584,7 +6580,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6604,19 +6600,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6642,13 +6638,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6666,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6678,24 +6674,24 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6706,7 +6702,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6718,13 +6714,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6775,36 +6771,36 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6815,25 +6811,25 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6884,36 +6880,36 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6933,16 +6929,16 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6993,7 +6989,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7005,24 +7001,24 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7030,10 +7026,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7045,16 +7041,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7104,36 +7100,36 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7144,7 +7140,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7156,16 +7152,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7215,40 +7211,40 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7264,19 +7260,19 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7302,14 +7298,14 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7326,7 +7322,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7338,28 +7334,28 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7375,19 +7371,19 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="L50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7437,7 +7433,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7449,24 +7445,24 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7474,28 +7470,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="J51" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7534,17 +7530,17 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7556,13 +7552,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7573,7 +7569,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7584,7 +7580,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7596,13 +7592,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7653,13 +7649,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7671,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7682,11 +7678,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7705,16 +7701,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K53" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L53" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7764,7 +7760,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7776,13 +7772,13 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7793,11 +7789,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7810,25 +7806,25 @@
         <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7877,7 +7873,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7889,13 +7885,13 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -7906,39 +7902,39 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7988,36 +7984,36 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8028,7 +8024,7 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8040,13 +8036,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8073,14 +8069,14 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8097,25 +8093,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8126,7 +8122,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8137,7 +8133,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8149,13 +8145,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8206,25 +8202,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8235,10 +8231,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>77</v>
@@ -8248,25 +8244,25 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8317,7 +8313,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8329,13 +8325,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8346,7 +8342,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8357,7 +8353,7 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8369,13 +8365,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8426,13 +8422,13 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
@@ -8444,7 +8440,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8455,11 +8451,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8478,16 +8474,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8537,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8549,13 +8545,13 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8566,11 +8562,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8583,25 +8579,25 @@
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8650,7 +8646,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8662,13 +8658,13 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8679,39 +8675,39 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J62" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8761,36 +8757,36 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8801,7 +8797,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8813,13 +8809,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8846,14 +8842,14 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8870,25 +8866,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -8899,7 +8895,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8910,7 +8906,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -8922,13 +8918,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8979,25 +8975,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9008,10 +9004,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -9021,25 +9017,25 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9090,7 +9086,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9102,13 +9098,13 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9119,7 +9115,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9130,7 +9126,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9142,13 +9138,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9199,13 +9195,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9217,7 +9213,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9228,11 +9224,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9251,16 +9247,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K67" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L67" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9310,7 +9306,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9322,13 +9318,13 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9339,11 +9335,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9356,25 +9352,25 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9423,7 +9419,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9435,13 +9431,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9452,39 +9448,39 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9534,36 +9530,36 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9574,7 +9570,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9586,13 +9582,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9619,14 +9615,14 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9643,25 +9639,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9672,7 +9668,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9683,7 +9679,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -9695,13 +9691,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9752,25 +9748,25 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -9781,7 +9777,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9804,16 +9800,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9863,7 +9859,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9875,13 +9871,13 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -9892,7 +9888,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9903,7 +9899,7 @@
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -9915,16 +9911,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9974,25 +9970,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10003,7 +9999,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10014,7 +10010,7 @@
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10026,13 +10022,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10083,13 +10079,13 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
@@ -10101,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10112,11 +10108,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10135,16 +10131,16 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L75" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10194,7 +10190,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10206,13 +10202,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10223,11 +10219,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10240,25 +10236,25 @@
         <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10307,7 +10303,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10319,13 +10315,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10336,7 +10332,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10347,7 +10343,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10359,13 +10355,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10416,36 +10412,36 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10456,7 +10452,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10468,13 +10464,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10525,25 +10521,25 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10554,7 +10550,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10565,7 +10561,7 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>77</v>
@@ -10577,13 +10573,13 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10610,60 +10606,60 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y79" t="s" s="2">
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10674,7 +10670,7 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -10686,13 +10682,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10719,60 +10715,60 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>428</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10795,19 +10791,19 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
@@ -10832,14 +10828,14 @@
         <v>77</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>77</v>
       </c>
@@ -10856,7 +10852,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10868,24 +10864,24 @@
         <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10908,13 +10904,13 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10941,14 +10937,14 @@
         <v>77</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
       </c>
@@ -10965,7 +10961,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10977,24 +10973,24 @@
         <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11017,13 +11013,13 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11050,14 +11046,14 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11074,7 +11070,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -11086,24 +11082,24 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11114,7 +11110,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11126,13 +11122,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11183,36 +11179,36 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11223,7 +11219,7 @@
         <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11235,13 +11231,13 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11268,60 +11264,60 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11329,10 +11325,10 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11344,16 +11340,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11403,7 +11399,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11415,13 +11411,13 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11432,7 +11428,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11443,7 +11439,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11455,13 +11451,13 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11512,13 +11508,13 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
@@ -11530,7 +11526,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11541,11 +11537,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11564,16 +11560,16 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K88" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L88" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11623,7 +11619,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11635,13 +11631,13 @@
         <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11652,11 +11648,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11669,25 +11665,25 @@
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="M89" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -11736,7 +11732,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11748,13 +11744,13 @@
         <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11765,7 +11761,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11773,10 +11769,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -11788,13 +11784,13 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11845,36 +11841,36 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AK90" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>478</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11885,7 +11881,7 @@
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -11897,16 +11893,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11932,49 +11928,49 @@
         <v>77</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -11985,7 +11981,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11996,7 +11992,7 @@
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>77</v>
@@ -12008,16 +12004,16 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12043,14 +12039,14 @@
         <v>77</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12067,19 +12063,19 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
@@ -12096,7 +12092,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12107,7 +12103,7 @@
         <v>75</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -12119,13 +12115,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12176,25 +12172,25 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12205,7 +12201,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12213,10 +12209,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>77</v>
@@ -12228,13 +12224,13 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12285,36 +12281,36 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>500</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12325,7 +12321,7 @@
         <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12337,16 +12333,16 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12396,25 +12392,25 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/smart-ig-empty/StructureDefinition/2156</t>
+    <t>http://worldhealthorganization.github.io/smart-ig-upvhproject/StructureDefinition/2156</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,13 +54,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T08:56:45+00:00</t>
+    <t>2022-10-25T10:50:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>WHO</t>
+    <t>UP Manila Viral Hepatitis Project</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T10:50:26+00:00</t>
+    <t>2022-10-25T11:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T11:01:47+00:00</t>
+    <t>2022-11-15T08:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1150,10 +1150,6 @@
     <t>The list of diagnosis relevant to this encounter.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:condition.reference}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
   </si>
   <si>
@@ -1221,12 +1217,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON].priority</t>
-  </si>
-  <si>
-    <t>HepB</t>
-  </si>
-  <si>
-    <t>HepC</t>
   </si>
   <si>
     <t>Encounter.account</t>
@@ -1882,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM95"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1917,7 +1907,7 @@
     <col min="24" max="24" width="74.65625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -7026,7 +7016,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>83</v>
@@ -7470,7 +7460,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>364</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>364</v>
@@ -7530,14 +7520,16 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AB51" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>363</v>
@@ -7558,7 +7550,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7569,7 +7561,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7678,7 +7670,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7789,7 +7781,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7902,11 +7894,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7925,13 +7917,13 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>353</v>
@@ -7984,7 +7976,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -7999,21 +7991,21 @@
         <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8039,10 +8031,10 @@
         <v>251</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8072,11 +8064,11 @@
         <v>107</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8093,7 +8085,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8122,7 +8114,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8145,13 +8137,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8202,7 +8194,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8220,7 +8212,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8231,11 +8223,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8244,7 +8234,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8253,18 +8243,20 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8313,7 +8305,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8331,7 +8323,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8342,7 +8334,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8365,15 +8357,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>167</v>
+        <v>396</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8422,7 +8416,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>169</v>
+        <v>395</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8434,13 +8428,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8451,18 +8445,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8474,17 +8468,15 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8533,19 +8525,19 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
@@ -8562,11 +8554,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8579,26 +8571,24 @@
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8646,7 +8636,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8664,7 +8654,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8675,41 +8665,43 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>375</v>
+        <v>175</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8757,36 +8749,36 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>177</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8809,13 +8801,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8842,13 +8834,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -8866,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8884,18 +8876,18 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8918,13 +8910,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8975,7 +8967,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8993,7 +8985,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9004,11 +8996,9 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9017,7 +9007,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9026,16 +9016,16 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9062,13 +9052,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9086,13 +9076,13 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
@@ -9104,18 +9094,18 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9138,13 +9128,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>167</v>
+        <v>420</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>168</v>
+        <v>421</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9171,13 +9161,13 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9195,7 +9185,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9207,7 +9197,7 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
@@ -9219,16 +9209,16 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9247,18 +9237,20 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>130</v>
+        <v>426</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>171</v>
+        <v>427</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9282,13 +9274,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9306,7 +9298,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9318,28 +9310,28 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>164</v>
+        <v>432</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9352,26 +9344,22 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9395,13 +9383,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9419,7 +9407,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>177</v>
+        <v>434</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9431,35 +9419,35 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>126</v>
+        <v>439</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9468,20 +9456,18 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>374</v>
+        <v>251</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9506,13 +9492,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9530,13 +9516,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9545,21 +9531,21 @@
         <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>379</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9582,13 +9568,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9615,13 +9601,13 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9639,7 +9625,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9657,18 +9643,18 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>164</v>
+        <v>451</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9691,13 +9677,13 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>386</v>
+        <v>251</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9724,13 +9710,13 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -9748,7 +9734,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9766,18 +9752,18 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9785,10 +9771,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -9800,16 +9786,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9859,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9877,7 +9863,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9874,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9911,17 +9897,15 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -9970,7 +9954,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>398</v>
+        <v>169</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9982,13 +9966,13 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -9999,18 +9983,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10022,15 +10006,17 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10079,19 +10065,19 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
@@ -10108,11 +10094,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10125,24 +10111,26 @@
         <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10190,7 +10178,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10208,7 +10196,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10219,43 +10207,39 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>175</v>
+        <v>470</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10303,36 +10287,36 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>177</v>
+        <v>468</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10355,15 +10339,17 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10388,13 +10374,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>480</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10412,7 +10398,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10430,18 +10416,18 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>145</v>
+        <v>481</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10464,15 +10450,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10497,13 +10485,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10521,7 +10509,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>410</v>
+        <v>482</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10539,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10550,7 +10538,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10573,13 +10561,13 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10606,13 +10594,13 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -10630,7 +10618,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10648,18 +10636,18 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10667,7 +10655,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>83</v>
@@ -10682,13 +10670,13 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>251</v>
+        <v>492</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10715,13 +10703,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -10739,7 +10727,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10754,21 +10742,21 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>164</v>
+        <v>495</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>427</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10779,7 +10767,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -10791,20 +10779,18 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -10828,13 +10814,13 @@
         <v>77</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>77</v>
@@ -10852,13 +10838,13 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
@@ -10867,1555 +10853,15 @@
         <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T08:01:14+00:00</t>
+    <t>2022-11-21T11:23:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T11:23:27+00:00</t>
+    <t>2022-12-05T08:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:40:14+00:00</t>
+    <t>2023-01-11T07:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:56:36+00:00</t>
+    <t>2023-01-11T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:04:46+00:00</t>
+    <t>2023-01-11T08:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:30:54+00:00</t>
+    <t>2023-01-11T09:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T09:49:58+00:00</t>
+    <t>2023-01-11T09:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T09:59:49+00:00</t>
+    <t>2023-01-11T10:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:05:15+00:00</t>
+    <t>2023-01-11T10:23:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:23:12+00:00</t>
+    <t>2023-01-11T10:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:43:46+00:00</t>
+    <t>2023-01-11T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:44:27+00:00</t>
+    <t>2023-01-11T10:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:45:19+00:00</t>
+    <t>2023-03-22T05:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T05:02:53+00:00</t>
+    <t>2023-06-06T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-2156.xlsx
+++ b/StructureDefinition-2156.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T12:43:51+00:00</t>
+    <t>2023-06-26T10:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
